--- a/EVALUACION/GRAFICOS DE BARRAS VARIABLES PREDICCION/OPTUNA ARBOL DE DECISION/ARMA_prediccion.xlsx
+++ b/EVALUACION/GRAFICOS DE BARRAS VARIABLES PREDICCION/OPTUNA ARBOL DE DECISION/ARMA_prediccion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA ARBOL DE DECISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACION\GRAFICOS DE BARRAS VARIABLES PREDICCION\OPTUNA ARBOL DE DECISION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6568AE-BB33-4585-B9DB-9B77A9AF5938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F55AB-922E-4469-8DD7-2CA263C694EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="710" windowWidth="9240" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,7 @@
                   <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1794,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C6" s="2">
         <v>0.13800000000000001</v>
